--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.51269006043044</v>
+        <v>79.25631761502021</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.05964393835154</v>
+        <v>108.4419903027871</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.41886388530986</v>
+        <v>98.09243894760601</v>
       </c>
       <c r="AD2" t="n">
-        <v>58512.69006043045</v>
+        <v>79256.31761502021</v>
       </c>
       <c r="AE2" t="n">
-        <v>80059.64393835154</v>
+        <v>108441.9903027871</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.072103581327076e-06</v>
+        <v>1.195574199514679e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.864583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72418.86388530987</v>
+        <v>98092.43894760602</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.67832944201054</v>
+        <v>56.00756230057063</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.49910552820899</v>
+        <v>76.63201761887633</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.53427861465527</v>
+        <v>69.31836541106051</v>
       </c>
       <c r="AD3" t="n">
-        <v>45678.32944201054</v>
+        <v>56007.56230057064</v>
       </c>
       <c r="AE3" t="n">
-        <v>62499.10552820899</v>
+        <v>76632.01761887633</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.004926629484035e-05</v>
+        <v>1.698878327784483e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.016059027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>56534.27861465527</v>
+        <v>69318.36541106051</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>32.55723633470591</v>
+        <v>42.97172053928857</v>
       </c>
       <c r="AB4" t="n">
-        <v>44.54624707692231</v>
+        <v>58.79580382034921</v>
       </c>
       <c r="AC4" t="n">
-        <v>40.2948157770268</v>
+        <v>53.18441482417585</v>
       </c>
       <c r="AD4" t="n">
-        <v>32557.23633470591</v>
+        <v>42971.72053928857</v>
       </c>
       <c r="AE4" t="n">
-        <v>44546.24707692231</v>
+        <v>58795.8038203492</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.105976687653051e-05</v>
+        <v>1.86970846483921e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.831597222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>40294.8157770268</v>
+        <v>53184.41482417585</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>31.04659713377389</v>
+        <v>41.46108133835295</v>
       </c>
       <c r="AB5" t="n">
-        <v>42.47932387751913</v>
+        <v>56.72888062077167</v>
       </c>
       <c r="AC5" t="n">
-        <v>38.42515682682357</v>
+        <v>51.314755873921</v>
       </c>
       <c r="AD5" t="n">
-        <v>31046.59713377389</v>
+        <v>41461.08133835295</v>
       </c>
       <c r="AE5" t="n">
-        <v>42479.32387751913</v>
+        <v>56728.88062077167</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.162556504016743e-05</v>
+        <v>1.965359451677577e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.742621527777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>38425.15682682357</v>
+        <v>51314.755873921</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>31.07612986440866</v>
+        <v>41.49061406898771</v>
       </c>
       <c r="AB6" t="n">
-        <v>42.51973186246555</v>
+        <v>56.76928860571808</v>
       </c>
       <c r="AC6" t="n">
-        <v>38.46170833039979</v>
+        <v>51.35130737749721</v>
       </c>
       <c r="AD6" t="n">
-        <v>31076.12986440866</v>
+        <v>41490.61406898771</v>
       </c>
       <c r="AE6" t="n">
-        <v>42519.73186246555</v>
+        <v>56769.28860571808</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.162995324374679e-05</v>
+        <v>1.966101299265268e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.742621527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>38461.70833039979</v>
+        <v>51351.30737749721</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.14696521058977</v>
+        <v>59.15228170842919</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.24504601218683</v>
+        <v>80.93476144793505</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.82727319981309</v>
+        <v>73.21046140801413</v>
       </c>
       <c r="AD2" t="n">
-        <v>49146.96521058977</v>
+        <v>59152.28170842919</v>
       </c>
       <c r="AE2" t="n">
-        <v>67245.04601218684</v>
+        <v>80934.76144793504</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.615651481856399e-06</v>
+        <v>1.492050775988731e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.432725694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>60827.27319981308</v>
+        <v>73210.46140801413</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.27093194564823</v>
+        <v>41.36149978950665</v>
       </c>
       <c r="AB3" t="n">
-        <v>42.78626866407752</v>
+        <v>56.59262875241294</v>
       </c>
       <c r="AC3" t="n">
-        <v>38.70280723375347</v>
+        <v>51.19150769264732</v>
       </c>
       <c r="AD3" t="n">
-        <v>31270.93194564823</v>
+        <v>41361.49978950665</v>
       </c>
       <c r="AE3" t="n">
-        <v>42786.26866407752</v>
+        <v>56592.62875241294</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135453658612539e-05</v>
+        <v>1.966368435398973e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.846788194444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>38702.80723375347</v>
+        <v>51191.50769264732</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>29.42520037850455</v>
+        <v>39.51576822236295</v>
       </c>
       <c r="AB4" t="n">
-        <v>40.2608573059939</v>
+        <v>54.06721739432932</v>
       </c>
       <c r="AC4" t="n">
-        <v>36.41841759124073</v>
+        <v>48.90711805013457</v>
       </c>
       <c r="AD4" t="n">
-        <v>29425.20037850455</v>
+        <v>39515.76822236295</v>
       </c>
       <c r="AE4" t="n">
-        <v>40260.8573059939</v>
+        <v>54067.21739432932</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.221492338687399e-05</v>
+        <v>2.115369447848331e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.716579861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>36418.41759124072</v>
+        <v>48907.11805013457</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>29.47533738282517</v>
+        <v>39.56590522668358</v>
       </c>
       <c r="AB5" t="n">
-        <v>40.32945696719357</v>
+        <v>54.13581705552899</v>
       </c>
       <c r="AC5" t="n">
-        <v>36.48047019705594</v>
+        <v>48.96917065594978</v>
       </c>
       <c r="AD5" t="n">
-        <v>29475.33738282517</v>
+        <v>39565.90522668359</v>
       </c>
       <c r="AE5" t="n">
-        <v>40329.45696719358</v>
+        <v>54135.81705552899</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.220970775067726e-05</v>
+        <v>2.114466208661952e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.716579861111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>36480.47019705594</v>
+        <v>48969.17065594978</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>25.93411192298467</v>
+        <v>35.04947753569849</v>
       </c>
       <c r="AB2" t="n">
-        <v>35.48419606522197</v>
+        <v>47.95624143802577</v>
       </c>
       <c r="AC2" t="n">
-        <v>32.09763419518769</v>
+        <v>43.37936506227383</v>
       </c>
       <c r="AD2" t="n">
-        <v>25934.11192298467</v>
+        <v>35049.47753569848</v>
       </c>
       <c r="AE2" t="n">
-        <v>35484.19606522196</v>
+        <v>47956.24143802577</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.31719203692141e-05</v>
+        <v>2.49241078004032e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.775173611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>32097.63419518769</v>
+        <v>43379.36506227384</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>25.94177432990128</v>
+        <v>35.05713994261509</v>
       </c>
       <c r="AB3" t="n">
-        <v>35.49468010840675</v>
+        <v>47.96672548121055</v>
       </c>
       <c r="AC3" t="n">
-        <v>32.1071176560054</v>
+        <v>43.38884852309155</v>
       </c>
       <c r="AD3" t="n">
-        <v>25941.77432990128</v>
+        <v>35057.13994261509</v>
       </c>
       <c r="AE3" t="n">
-        <v>35494.68010840676</v>
+        <v>47966.72548121055</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.321190517036107e-05</v>
+        <v>2.499976764849142e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.770833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>32107.1176560054</v>
+        <v>43388.84852309155</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>29.2933999520273</v>
+        <v>38.79003073099814</v>
       </c>
       <c r="AB2" t="n">
-        <v>40.08052214786417</v>
+        <v>53.07423134137034</v>
       </c>
       <c r="AC2" t="n">
-        <v>36.25529336750037</v>
+        <v>48.00890119240238</v>
       </c>
       <c r="AD2" t="n">
-        <v>29293.3999520273</v>
+        <v>38790.03073099814</v>
       </c>
       <c r="AE2" t="n">
-        <v>40080.52214786417</v>
+        <v>53074.23134137034</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165732926152225e-05</v>
+        <v>2.123712223657493e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.918402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>36255.29336750037</v>
+        <v>48008.90119240238</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>27.21049287765641</v>
+        <v>36.70712365662725</v>
       </c>
       <c r="AB3" t="n">
-        <v>37.23059679734895</v>
+        <v>50.22430599085512</v>
       </c>
       <c r="AC3" t="n">
-        <v>33.67736089253449</v>
+        <v>45.43096871743649</v>
       </c>
       <c r="AD3" t="n">
-        <v>27210.49287765641</v>
+        <v>36707.12365662726</v>
       </c>
       <c r="AE3" t="n">
-        <v>37230.59679734895</v>
+        <v>50224.30599085512</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292140434197601e-05</v>
+        <v>2.353999250793408e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.731770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>33677.3608925345</v>
+        <v>45430.9687174365</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>25.10077579362833</v>
+        <v>33.90342576069416</v>
       </c>
       <c r="AB2" t="n">
-        <v>34.3439888088468</v>
+        <v>46.38816283923647</v>
       </c>
       <c r="AC2" t="n">
-        <v>31.06624671906664</v>
+        <v>41.96094168413619</v>
       </c>
       <c r="AD2" t="n">
-        <v>25100.77579362833</v>
+        <v>33903.42576069415</v>
       </c>
       <c r="AE2" t="n">
-        <v>34343.9888088468</v>
+        <v>46388.16283923647</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305734584943493e-05</v>
+        <v>2.558819078195325e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.859809027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>31066.24671906664</v>
+        <v>41960.94168413619</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.21344973733938</v>
+        <v>61.47449708192695</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.07250130854732</v>
+        <v>84.1121189708649</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.38488013104827</v>
+        <v>76.08457638840586</v>
       </c>
       <c r="AD2" t="n">
-        <v>51213.44973733938</v>
+        <v>61474.49708192695</v>
       </c>
       <c r="AE2" t="n">
-        <v>70072.50130854732</v>
+        <v>84112.1189708649</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.206402593512404e-06</v>
+        <v>1.411896144158835e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.530381944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>63384.88013104827</v>
+        <v>76084.57638840587</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.20041756266177</v>
+        <v>42.37612405267963</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.05803189128065</v>
+        <v>57.98088243150873</v>
       </c>
       <c r="AC3" t="n">
-        <v>39.85319516348701</v>
+        <v>52.4472683889367</v>
       </c>
       <c r="AD3" t="n">
-        <v>32200.41756266177</v>
+        <v>42376.12405267963</v>
       </c>
       <c r="AE3" t="n">
-        <v>44058.03189128065</v>
+        <v>57980.88243150873</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.102674029011056e-05</v>
+        <v>1.897129944679511e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.883680555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>39853.19516348701</v>
+        <v>52447.2683889367</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>29.78483485586823</v>
+        <v>39.96054134588258</v>
       </c>
       <c r="AB4" t="n">
-        <v>40.75292506387388</v>
+        <v>54.67577560393127</v>
       </c>
       <c r="AC4" t="n">
-        <v>36.86352309293154</v>
+        <v>49.45759631833075</v>
       </c>
       <c r="AD4" t="n">
-        <v>29784.83485586823</v>
+        <v>39960.54134588258</v>
       </c>
       <c r="AE4" t="n">
-        <v>40752.92506387388</v>
+        <v>54675.77560393127</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.210223034132308e-05</v>
+        <v>2.082165986853286e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.716579861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>36863.52309293154</v>
+        <v>49457.59631833075</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>29.83357838527487</v>
+        <v>40.00928487528923</v>
       </c>
       <c r="AB5" t="n">
-        <v>40.81961811122048</v>
+        <v>54.74246865127788</v>
       </c>
       <c r="AC5" t="n">
-        <v>36.92385104944386</v>
+        <v>49.51792427484307</v>
       </c>
       <c r="AD5" t="n">
-        <v>29833.57838527487</v>
+        <v>40009.28487528922</v>
       </c>
       <c r="AE5" t="n">
-        <v>40819.61811122048</v>
+        <v>54742.46865127788</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.207246197126905e-05</v>
+        <v>2.077044394728327e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.720920138888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>36923.85104944386</v>
+        <v>49517.92427484307</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>24.61223075651402</v>
+        <v>33.22970623943383</v>
       </c>
       <c r="AB2" t="n">
-        <v>33.67553993598433</v>
+        <v>45.46635006784498</v>
       </c>
       <c r="AC2" t="n">
-        <v>30.46159366845429</v>
+        <v>41.12710542987121</v>
       </c>
       <c r="AD2" t="n">
-        <v>24612.23075651401</v>
+        <v>33229.70623943383</v>
       </c>
       <c r="AE2" t="n">
-        <v>33675.53993598433</v>
+        <v>45466.35006784498</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.288783463172657e-05</v>
+        <v>2.583573142647451e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.929253472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>30461.59366845429</v>
+        <v>41127.1054298712</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.1615110090306</v>
+        <v>52.89051140732484</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.0554835140147</v>
+        <v>72.36713107215944</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.41931105234075</v>
+        <v>65.46051365055506</v>
       </c>
       <c r="AD2" t="n">
-        <v>43161.5110090306</v>
+        <v>52890.51140732484</v>
       </c>
       <c r="AE2" t="n">
-        <v>59055.4835140147</v>
+        <v>72367.13107215943</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.016708100910381e-05</v>
+        <v>1.800665595139339e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.124565972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>53419.31105234075</v>
+        <v>65460.51365055506</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>28.97940711509928</v>
+        <v>38.79365885941257</v>
       </c>
       <c r="AB3" t="n">
-        <v>39.65090329599503</v>
+        <v>53.07919550672865</v>
       </c>
       <c r="AC3" t="n">
-        <v>35.8666767358785</v>
+        <v>48.01339158478616</v>
       </c>
       <c r="AD3" t="n">
-        <v>28979.40711509929</v>
+        <v>38793.65885941256</v>
       </c>
       <c r="AE3" t="n">
-        <v>39650.90329599503</v>
+        <v>53079.19550672865</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.220939370534763e-05</v>
+        <v>2.16237434943662e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.768663194444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>35866.6767358785</v>
+        <v>48013.39158478616</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>28.35040048131356</v>
+        <v>38.16465222562684</v>
       </c>
       <c r="AB4" t="n">
-        <v>38.79026866983936</v>
+        <v>52.21856088057299</v>
       </c>
       <c r="AC4" t="n">
-        <v>35.08817987053229</v>
+        <v>47.23489471943994</v>
       </c>
       <c r="AD4" t="n">
-        <v>28350.40048131356</v>
+        <v>38164.65222562684</v>
       </c>
       <c r="AE4" t="n">
-        <v>38790.26866983936</v>
+        <v>52218.56088057299</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.259570457056316e-05</v>
+        <v>2.23079287422257e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.714409722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>35088.17987053229</v>
+        <v>47234.89471943994</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.19101704902653</v>
+        <v>57.10795739683145</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.56883144719454</v>
+        <v>78.13762673558506</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.40647279681205</v>
+        <v>70.68028130680671</v>
       </c>
       <c r="AD2" t="n">
-        <v>47191.01704902653</v>
+        <v>57107.95739683145</v>
       </c>
       <c r="AE2" t="n">
-        <v>64568.83144719453</v>
+        <v>78137.62673558506</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.052105828519787e-06</v>
+        <v>1.57860821422598e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.337239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>58406.47279681206</v>
+        <v>70680.2813068067</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>30.06861380927547</v>
+        <v>40.07080550309941</v>
       </c>
       <c r="AB3" t="n">
-        <v>41.14120394736764</v>
+        <v>54.82664388834591</v>
       </c>
       <c r="AC3" t="n">
-        <v>37.21474518473865</v>
+        <v>49.59406594542627</v>
       </c>
       <c r="AD3" t="n">
-        <v>30068.61380927547</v>
+        <v>40070.80550309941</v>
       </c>
       <c r="AE3" t="n">
-        <v>41141.20394736764</v>
+        <v>54826.6438883459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.188135813440588e-05</v>
+        <v>2.072005111566486e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.781684027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>37214.74518473865</v>
+        <v>49594.06594542626</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>29.11075567033706</v>
+        <v>39.11294736416099</v>
       </c>
       <c r="AB4" t="n">
-        <v>39.83062018395977</v>
+        <v>53.51606012493803</v>
       </c>
       <c r="AC4" t="n">
-        <v>36.02924169629065</v>
+        <v>48.40856245697827</v>
       </c>
       <c r="AD4" t="n">
-        <v>29110.75567033706</v>
+        <v>39112.94736416099</v>
       </c>
       <c r="AE4" t="n">
-        <v>39830.62018395976</v>
+        <v>53516.06012493803</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.231622270635515e-05</v>
+        <v>2.147841695711597e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>36029.24169629065</v>
+        <v>48408.56245697827</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.71659101808889</v>
+        <v>76.3061008112157</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.23389787343797</v>
+        <v>104.4053735174442</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.9582416553621</v>
+        <v>94.44107120282776</v>
       </c>
       <c r="AD2" t="n">
-        <v>55716.59101808889</v>
+        <v>76306.1008112157</v>
       </c>
       <c r="AE2" t="n">
-        <v>76233.89787343796</v>
+        <v>104405.3735174442</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.460478571157058e-06</v>
+        <v>1.268231911746346e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.736545138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>68958.2416553621</v>
+        <v>94441.07120282776</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.31388843908975</v>
+        <v>54.81805737764719</v>
       </c>
       <c r="AB3" t="n">
-        <v>46.94977598414997</v>
+        <v>75.00448450607973</v>
       </c>
       <c r="AC3" t="n">
-        <v>42.46895525872981</v>
+        <v>67.84616177429163</v>
       </c>
       <c r="AD3" t="n">
-        <v>34313.88843908975</v>
+        <v>54818.05737764719</v>
       </c>
       <c r="AE3" t="n">
-        <v>46949.77598414996</v>
+        <v>75004.48450607974</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.030775527278923e-05</v>
+        <v>1.752250080304903e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.981336805555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>42468.95525872981</v>
+        <v>67846.16177429163</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>31.56843959574344</v>
+        <v>41.90586491959104</v>
       </c>
       <c r="AB4" t="n">
-        <v>43.19333175604702</v>
+        <v>57.3374531390854</v>
       </c>
       <c r="AC4" t="n">
-        <v>39.07102079554324</v>
+        <v>51.86524708522557</v>
       </c>
       <c r="AD4" t="n">
-        <v>31568.43959574344</v>
+        <v>41905.86491959104</v>
       </c>
       <c r="AE4" t="n">
-        <v>43193.33175604702</v>
+        <v>57337.4531390854</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.141141144651966e-05</v>
+        <v>1.939864315205616e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.790364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>39071.02079554324</v>
+        <v>51865.24708522557</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>30.71718380551408</v>
+        <v>41.05460912936168</v>
       </c>
       <c r="AB5" t="n">
-        <v>42.02860602910585</v>
+        <v>56.17272741214424</v>
       </c>
       <c r="AC5" t="n">
-        <v>38.01745485727505</v>
+        <v>50.81168114695738</v>
       </c>
       <c r="AD5" t="n">
-        <v>30717.18380551408</v>
+        <v>41054.60912936168</v>
       </c>
       <c r="AE5" t="n">
-        <v>42028.60602910585</v>
+        <v>56172.72741214424</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.168932537855906e-05</v>
+        <v>1.987107841739411e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.746961805555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>38017.45485727505</v>
+        <v>50811.68114695738</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.3665875305045</v>
+        <v>39.97473389165685</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.54890473842404</v>
+        <v>54.69519447119048</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.58353558450949</v>
+        <v>49.47516187615334</v>
       </c>
       <c r="AD2" t="n">
-        <v>30366.5875305045</v>
+        <v>39974.73389165686</v>
       </c>
       <c r="AE2" t="n">
-        <v>41548.90473842403</v>
+        <v>54695.19447119047</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.123032125803311e-05</v>
+        <v>2.025092677081008e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.968315972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>37583.53558450949</v>
+        <v>49475.16187615335</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>27.47603391334117</v>
+        <v>37.08418027449353</v>
       </c>
       <c r="AB3" t="n">
-        <v>37.59392175721479</v>
+        <v>50.74021148998123</v>
       </c>
       <c r="AC3" t="n">
-        <v>34.0060106281616</v>
+        <v>45.89763691980546</v>
       </c>
       <c r="AD3" t="n">
-        <v>27476.03391334117</v>
+        <v>37084.18027449353</v>
       </c>
       <c r="AE3" t="n">
-        <v>37593.92175721479</v>
+        <v>50740.21148998123</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292483206661549e-05</v>
+        <v>2.330653074762437e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.710069444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>34006.0106281616</v>
+        <v>45897.63691980547</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>27.23554248476143</v>
+        <v>36.4872629842361</v>
       </c>
       <c r="AB2" t="n">
-        <v>37.26487077490054</v>
+        <v>49.92348291932268</v>
       </c>
       <c r="AC2" t="n">
-        <v>33.7083638097725</v>
+        <v>45.15885577764239</v>
       </c>
       <c r="AD2" t="n">
-        <v>27235.54248476143</v>
+        <v>36487.2629842361</v>
       </c>
       <c r="AE2" t="n">
-        <v>37264.87077490054</v>
+        <v>49923.48291932268</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248797778918584e-05</v>
+        <v>2.329857486320952e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.842447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>33708.3638097725</v>
+        <v>45158.85577764239</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>26.32157972557868</v>
+        <v>35.57330022505335</v>
       </c>
       <c r="AB3" t="n">
-        <v>36.01434660660156</v>
+        <v>48.6729587510237</v>
       </c>
       <c r="AC3" t="n">
-        <v>32.57718791297055</v>
+        <v>44.02767988084045</v>
       </c>
       <c r="AD3" t="n">
-        <v>26321.57972557868</v>
+        <v>35573.30022505335</v>
       </c>
       <c r="AE3" t="n">
-        <v>36014.34660660155</v>
+        <v>48672.9587510237</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.319760996144876e-05</v>
+        <v>2.462252166788171e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.744791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>32577.18791297055</v>
+        <v>44027.67988084044</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>25.65284468941602</v>
+        <v>34.6196673359072</v>
       </c>
       <c r="AB2" t="n">
-        <v>35.09935382762063</v>
+        <v>47.36815616078642</v>
       </c>
       <c r="AC2" t="n">
-        <v>31.74952076061239</v>
+        <v>42.84740581850959</v>
       </c>
       <c r="AD2" t="n">
-        <v>25652.84468941602</v>
+        <v>34619.6673359072</v>
       </c>
       <c r="AE2" t="n">
-        <v>35099.35382762062</v>
+        <v>47368.15616078642</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.301785640035668e-05</v>
+        <v>2.503382060696648e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.829427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>31749.52076061239</v>
+        <v>42847.40581850959</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.81973443009998</v>
+        <v>41.13654983418062</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.90540855163739</v>
+        <v>56.28484229944574</v>
       </c>
       <c r="AC2" t="n">
-        <v>40.61969938468243</v>
+        <v>50.9130959467694</v>
       </c>
       <c r="AD2" t="n">
-        <v>32819.73443009998</v>
+        <v>41136.54983418062</v>
       </c>
       <c r="AE2" t="n">
-        <v>44905.4085516374</v>
+        <v>56284.84229944574</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.222854379431113e-05</v>
+        <v>2.522258613140071e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.08984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>40619.69938468243</v>
+        <v>50913.0959467694</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.25600959701858</v>
+        <v>55.08098422118527</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.92126888485467</v>
+        <v>75.36423261292204</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.0115898895437</v>
+        <v>68.17157602672665</v>
       </c>
       <c r="AD2" t="n">
-        <v>45256.00959701858</v>
+        <v>55080.98422118527</v>
       </c>
       <c r="AE2" t="n">
-        <v>61921.26888485467</v>
+        <v>75364.23261292203</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.54051442235762e-06</v>
+        <v>1.676230748800908e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.239583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>56011.5898895437</v>
+        <v>68171.57602672666</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>29.30597781347244</v>
+        <v>39.21620378365814</v>
       </c>
       <c r="AB3" t="n">
-        <v>40.09773173278941</v>
+        <v>53.65734011344507</v>
       </c>
       <c r="AC3" t="n">
-        <v>36.27086049379422</v>
+        <v>48.53635888167032</v>
       </c>
       <c r="AD3" t="n">
-        <v>29305.97781347244</v>
+        <v>39216.20378365814</v>
       </c>
       <c r="AE3" t="n">
-        <v>40097.73173278941</v>
+        <v>53657.34011344507</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.215930345254678e-05</v>
+        <v>2.13634165086491e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.7578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>36270.86049379421</v>
+        <v>48536.35888167033</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>28.7891639513018</v>
+        <v>38.6993899214875</v>
       </c>
       <c r="AB4" t="n">
-        <v>39.39060420635252</v>
+        <v>52.95021258700817</v>
       </c>
       <c r="AC4" t="n">
-        <v>35.63122022601863</v>
+        <v>47.89671861389474</v>
       </c>
       <c r="AD4" t="n">
-        <v>28789.1639513018</v>
+        <v>38699.3899214875</v>
       </c>
       <c r="AE4" t="n">
-        <v>39390.60420635252</v>
+        <v>52950.21258700817</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243523497071284e-05</v>
+        <v>2.184821730118222e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>35631.22022601863</v>
+        <v>47896.71861389474</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.39316043516218</v>
+        <v>63.73640806214922</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.05487764735619</v>
+        <v>87.20696536247318</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.08262265787364</v>
+        <v>78.88405498404424</v>
       </c>
       <c r="AD2" t="n">
-        <v>53393.16043516218</v>
+        <v>63736.40806214922</v>
       </c>
       <c r="AE2" t="n">
-        <v>73054.87764735619</v>
+        <v>87206.96536247319</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.821358488437195e-06</v>
+        <v>1.337365138430142e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.632378472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>66082.62265787364</v>
+        <v>78884.05498404424</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.31439975394233</v>
+        <v>43.57230652635984</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.5822314708091</v>
+        <v>59.61755206384345</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.23192727437736</v>
+        <v>53.92773656864217</v>
       </c>
       <c r="AD3" t="n">
-        <v>33314.39975394233</v>
+        <v>43572.30652635984</v>
       </c>
       <c r="AE3" t="n">
-        <v>45582.2314708091</v>
+        <v>59617.55206384345</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.06199132643135e-05</v>
+        <v>1.815886817340168e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.940104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>41231.92727437736</v>
+        <v>53927.73656864218</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>30.69270648866604</v>
+        <v>40.95061326107985</v>
       </c>
       <c r="AB4" t="n">
-        <v>41.99511508433152</v>
+        <v>56.03043567718784</v>
       </c>
       <c r="AC4" t="n">
-        <v>37.98716024126505</v>
+        <v>50.6829695354771</v>
       </c>
       <c r="AD4" t="n">
-        <v>30692.70648866604</v>
+        <v>40950.61326107985</v>
       </c>
       <c r="AE4" t="n">
-        <v>41995.11508433153</v>
+        <v>56030.43567718784</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.174043595915422e-05</v>
+        <v>2.007483710784595e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.753472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>37987.16024126505</v>
+        <v>50682.9695354771</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>30.38360143838559</v>
+        <v>40.64150821079939</v>
       </c>
       <c r="AB5" t="n">
-        <v>41.57218391778746</v>
+        <v>55.60750451064378</v>
       </c>
       <c r="AC5" t="n">
-        <v>37.60459303166708</v>
+        <v>50.30040232587912</v>
       </c>
       <c r="AD5" t="n">
-        <v>30383.60143838559</v>
+        <v>40641.50821079939</v>
       </c>
       <c r="AE5" t="n">
-        <v>41572.18391778746</v>
+        <v>55607.50451064378</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.181673171175008e-05</v>
+        <v>2.020529434220344e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.742621527777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>37604.59303166708</v>
+        <v>50300.40232587912</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.36987950070365</v>
+        <v>40.42255662142897</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.28989719104151</v>
+        <v>55.3079252866062</v>
       </c>
       <c r="AC2" t="n">
-        <v>40.06293156446438</v>
+        <v>50.02941452252072</v>
       </c>
       <c r="AD2" t="n">
-        <v>32369.87950070365</v>
+        <v>40422.55662142896</v>
       </c>
       <c r="AE2" t="n">
-        <v>44289.89719104151</v>
+        <v>55307.9252866062</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.093011279578175e-05</v>
+        <v>2.342826602705627e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>40062.93156446438</v>
+        <v>50029.41452252072</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>28.63648949540556</v>
+        <v>38.01473347048336</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.18170828027468</v>
+        <v>52.01343542583798</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.44226103393775</v>
+        <v>47.04934615020885</v>
       </c>
       <c r="AD2" t="n">
-        <v>28636.48949540556</v>
+        <v>38014.73347048336</v>
       </c>
       <c r="AE2" t="n">
-        <v>39181.70828027467</v>
+        <v>52013.43542583798</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18464166766697e-05</v>
+        <v>2.182622350949518e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.9140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>35442.26103393776</v>
+        <v>47049.34615020885</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>26.83282083362818</v>
+        <v>36.21106480870598</v>
       </c>
       <c r="AB3" t="n">
-        <v>36.71384924499736</v>
+        <v>49.54557639056067</v>
       </c>
       <c r="AC3" t="n">
-        <v>33.20993100131807</v>
+        <v>44.81701611758916</v>
       </c>
       <c r="AD3" t="n">
-        <v>26832.82083362818</v>
+        <v>36211.06480870597</v>
       </c>
       <c r="AE3" t="n">
-        <v>36713.84924499736</v>
+        <v>49545.57639056067</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.299364310684e-05</v>
+        <v>2.393991080957219e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.744791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>33209.93100131807</v>
+        <v>44817.01611758916</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.41193054292622</v>
+        <v>51.04044343781125</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.6616303340891</v>
+        <v>69.83578645703381</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.25392386021284</v>
+        <v>63.17075701273171</v>
       </c>
       <c r="AD2" t="n">
-        <v>41411.93054292622</v>
+        <v>51040.44343781125</v>
       </c>
       <c r="AE2" t="n">
-        <v>56661.6303340891</v>
+        <v>69835.7864570338</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.074839451827851e-05</v>
+        <v>1.920122240755368e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>51253.92386021285</v>
+        <v>63170.75701273172</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>28.15521188546564</v>
+        <v>37.86897612636637</v>
       </c>
       <c r="AB3" t="n">
-        <v>38.52320302188843</v>
+        <v>51.81400379725788</v>
       </c>
       <c r="AC3" t="n">
-        <v>34.846602593192</v>
+        <v>46.86894799635579</v>
       </c>
       <c r="AD3" t="n">
-        <v>28155.21188546564</v>
+        <v>37868.97612636637</v>
       </c>
       <c r="AE3" t="n">
-        <v>38523.20302188843</v>
+        <v>51814.00379725788</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254732352152496e-05</v>
+        <v>2.241487778910793e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.740451388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>34846.602593192</v>
+        <v>46868.94799635579</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>28.03183205531177</v>
+        <v>37.7455962962125</v>
       </c>
       <c r="AB4" t="n">
-        <v>38.35438929513877</v>
+        <v>51.64519007050822</v>
       </c>
       <c r="AC4" t="n">
-        <v>34.69390021159127</v>
+        <v>46.71624561475506</v>
       </c>
       <c r="AD4" t="n">
-        <v>28031.83205531177</v>
+        <v>37745.5962962125</v>
       </c>
       <c r="AE4" t="n">
-        <v>38354.38929513877</v>
+        <v>51645.19007050822</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.26723972854267e-05</v>
+        <v>2.263831294065016e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.723090277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>34693.90021159127</v>
+        <v>46716.24561475506</v>
       </c>
     </row>
   </sheetData>
